--- a/Sura/DataSource - Emision Motor Flota Parte 1.xlsx
+++ b/Sura/DataSource - Emision Motor Flota Parte 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF2AB27-7C1F-4B73-8C09-331964EECE3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32600CB4-BE79-4CA5-98DB-5698F5BF6586}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Marney Ruiz: aquí va el Nombre del Grupo, NO el nombre del productor</t>
         </r>
@@ -340,23 +340,23 @@
     <t>silverarrow</t>
   </si>
   <si>
-    <t>08/04/2021</t>
-  </si>
-  <si>
-    <t>RGA013</t>
-  </si>
-  <si>
-    <t>A1234567RGA010</t>
-  </si>
-  <si>
-    <t>B1234567RGA010</t>
+    <t>03/05/2021</t>
+  </si>
+  <si>
+    <t>RGM013</t>
+  </si>
+  <si>
+    <t>A1234567RGM013</t>
+  </si>
+  <si>
+    <t>B1234567RGM013</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -390,16 +390,9 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -517,13 +510,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -814,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Sura/DataSource - Emision Motor Flota Parte 1.xlsx
+++ b/Sura/DataSource - Emision Motor Flota Parte 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32600CB4-BE79-4CA5-98DB-5698F5BF6586}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BBCDCC-39EC-4E67-990A-BFE41DB88EF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -340,9 +340,6 @@
     <t>silverarrow</t>
   </si>
   <si>
-    <t>03/05/2021</t>
-  </si>
-  <si>
     <t>RGM013</t>
   </si>
   <si>
@@ -350,6 +347,9 @@
   </si>
   <si>
     <t>B1234567RGM013</t>
+  </si>
+  <si>
+    <t>06/05/2021</t>
   </si>
 </sst>
 </file>
@@ -807,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,7 +955,7 @@
       <c r="N2" s="7"/>
       <c r="P2" s="10"/>
       <c r="Q2" s="9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="R2">
         <v>2021</v>
@@ -973,13 +973,13 @@
         <v>68</v>
       </c>
       <c r="W2" t="s">
+        <v>84</v>
+      </c>
+      <c r="X2" t="s">
         <v>85</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>86</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>87</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>18</v>

--- a/Sura/DataSource - Emision Motor Flota Parte 1.xlsx
+++ b/Sura/DataSource - Emision Motor Flota Parte 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BBCDCC-39EC-4E67-990A-BFE41DB88EF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B60AA07-DA75-448C-89EE-599CB24BB499}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -807,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,7 +934,7 @@
         <v>83</v>
       </c>
       <c r="E2" s="2">
-        <v>2240451788</v>
+        <v>7635954411</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>13</v>

--- a/Sura/DataSource - Emision Motor Flota Parte 1.xlsx
+++ b/Sura/DataSource - Emision Motor Flota Parte 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B60AA07-DA75-448C-89EE-599CB24BB499}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5552F0-464E-464A-B6DE-179CB6569082}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,16 +20,8 @@
   <definedNames>
     <definedName name="OLE_LINK1" localSheetId="0">DatosMotor!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -43,7 +35,7 @@
     <author>Marney Ruiz</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{6AADACBD-1766-4694-8D0F-627DAB8AA201}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -67,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{F0D96AC0-D901-4C9E-A615-1E2282154B44}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -86,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="89">
   <si>
     <t>Usuario</t>
   </si>
@@ -325,31 +317,34 @@
     <t>su</t>
   </si>
   <si>
-    <t>CHEVROLET</t>
-  </si>
-  <si>
-    <t>ONIX 1.4 JOY L/19</t>
-  </si>
-  <si>
-    <t>i-preproducciongestion.segurossura.com.ar</t>
-  </si>
-  <si>
-    <t>https://i-preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
-  </si>
-  <si>
-    <t>silverarrow</t>
-  </si>
-  <si>
-    <t>RGM013</t>
-  </si>
-  <si>
-    <t>A1234567RGM013</t>
-  </si>
-  <si>
-    <t>B1234567RGM013</t>
-  </si>
-  <si>
-    <t>06/05/2021</t>
+    <t>23/06/2021</t>
+  </si>
+  <si>
+    <t>TOYOTA</t>
+  </si>
+  <si>
+    <t>ETIOS 1.5 4 PTAS X 6MT L/18</t>
+  </si>
+  <si>
+    <t>Agustin Seisdedos</t>
+  </si>
+  <si>
+    <t>ssurgwsoadev4-oci.opc.oracleoutsourcing.com</t>
+  </si>
+  <si>
+    <t>https://ssurgwsoadev4-oci.opc.oracleoutsourcing.com/pc/PolicyCenter.do</t>
+  </si>
+  <si>
+    <t>gw</t>
+  </si>
+  <si>
+    <t>JUN330</t>
+  </si>
+  <si>
+    <t>A1234567JUN330</t>
+  </si>
+  <si>
+    <t>B1234567JUN330</t>
   </si>
 </sst>
 </file>
@@ -807,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,19 +917,19 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
         <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E2" s="2">
-        <v>7635954411</v>
+        <v>5944085871</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>13</v>
@@ -955,31 +950,31 @@
       <c r="N2" s="7"/>
       <c r="P2" s="10"/>
       <c r="Q2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="R2">
+        <v>2020</v>
+      </c>
+      <c r="S2" t="s">
+        <v>80</v>
+      </c>
+      <c r="T2" t="s">
+        <v>81</v>
+      </c>
+      <c r="U2" s="2">
+        <v>1481000</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W2" t="s">
+        <v>86</v>
+      </c>
+      <c r="X2" t="s">
         <v>87</v>
       </c>
-      <c r="R2">
-        <v>2021</v>
-      </c>
-      <c r="S2" t="s">
-        <v>79</v>
-      </c>
-      <c r="T2" t="s">
-        <v>80</v>
-      </c>
-      <c r="U2" s="2">
-        <v>1600000</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="W2" t="s">
-        <v>84</v>
-      </c>
-      <c r="X2" t="s">
-        <v>85</v>
-      </c>
       <c r="Y2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>18</v>
@@ -987,54 +982,57 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{F69D71E1-9A46-4EDD-AD6F-382E68BECAEB}">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>NoTocar!$A$2:$A$4</xm:f>
           </x14:formula1>
           <xm:sqref>I2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{23C57C1C-8D73-4578-97BC-3690E1C074DF}">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>NoTocar!$C$2:$C$3</xm:f>
           </x14:formula1>
           <xm:sqref>J2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{263242FB-0B77-403B-9FEC-F5AEF3B978D0}">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>NoTocar!$E$2:$E$12</xm:f>
           </x14:formula1>
           <xm:sqref>K2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{EF6FFACF-4A13-4C8B-BC46-5DD113A9AA01}">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>NoTocar!$I$2:$I$13</xm:f>
           </x14:formula1>
           <xm:sqref>L2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{9A24DE67-D029-45B4-B197-F4E70722AAD4}">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>NoTocar!$K$2</xm:f>
           </x14:formula1>
           <xm:sqref>O2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{4D7EE1D7-4A04-4F54-9DB5-AA0EF4754B5B}">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
             <xm:f>NoTocar!$M$2:$M$12</xm:f>
           </x14:formula1>
           <xm:sqref>V2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{4261F2D0-E4B7-4025-83D0-21C9BC549CE0}">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
           <x14:formula1>
             <xm:f>NoTocar!$G$2:$G$7</xm:f>
           </x14:formula1>
           <xm:sqref>H2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{C78C9F46-7C19-4339-A24B-57BF28010E8D}">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000007000000}">
           <x14:formula1>
             <xm:f>NoTocar!$O$2:$O$4</xm:f>
           </x14:formula1>
@@ -1047,11 +1045,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A46EEE9-5FE1-429A-936A-C6CB5C73DF1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,8 +1067,12 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
+      <c r="A2" s="5">
+        <v>6254</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
@@ -1123,7 +1125,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ABC5457-14AF-422B-9E60-2C16ABEA8381}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
